--- a/config_1.19/game_module_config_cjj.xlsx
+++ b/config_1.19/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3858,10 +3858,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3870,10 +3866,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_013_ffyd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3940,13 +3932,51 @@
   <si>
     <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_collect_words</t>
+  </si>
+  <si>
+    <t>通用活动--发财礼包模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_Collect_WordsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jbp</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4022,8 +4052,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4060,6 +4097,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4092,7 +4135,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4162,16 +4205,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4451,16 +4500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ309"/>
+  <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G309" sqref="G309"/>
+      <selection pane="bottomRight" activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
@@ -4473,7 +4522,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4551,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4528,7 +4577,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4554,7 +4603,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4580,7 +4629,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4606,7 +4655,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4632,7 +4681,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4658,7 +4707,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4684,7 +4733,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4710,7 +4759,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4736,7 +4785,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4762,7 +4811,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4788,7 +4837,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4814,7 +4863,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4840,7 +4889,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4866,7 +4915,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4892,7 +4941,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4918,7 +4967,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4944,7 +4993,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4970,7 +5019,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4996,7 +5045,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5022,7 +5071,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5048,7 +5097,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5074,7 +5123,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5100,7 +5149,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5126,7 +5175,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5152,7 +5201,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5178,7 +5227,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5204,7 +5253,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5230,7 +5279,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5256,7 +5305,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5282,7 +5331,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5308,7 +5357,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5334,7 +5383,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5360,7 +5409,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5386,7 +5435,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5412,7 +5461,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5438,7 +5487,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5464,7 +5513,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5490,7 +5539,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5516,7 +5565,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -5542,7 +5591,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -5568,7 +5617,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -5620,7 +5669,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -5646,7 +5695,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -5672,7 +5721,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -5698,7 +5747,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -5724,7 +5773,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -5750,7 +5799,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5776,7 +5825,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5802,7 +5851,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5826,7 +5875,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5852,7 +5901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5878,7 +5927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5904,7 +5953,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5930,7 +5979,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5956,7 +6005,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -5982,7 +6031,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6008,7 +6057,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6034,7 +6083,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6060,7 +6109,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6086,7 +6135,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -6112,7 +6161,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -6138,7 +6187,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -6164,7 +6213,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -6190,7 +6239,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -6216,7 +6265,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -6242,7 +6291,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -6268,7 +6317,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -6294,7 +6343,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -6320,7 +6369,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6346,7 +6395,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -6372,7 +6421,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -6398,7 +6447,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -6424,7 +6473,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6450,7 +6499,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6476,7 +6525,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6502,7 +6551,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6528,7 +6577,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6554,7 +6603,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6580,7 +6629,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6606,7 +6655,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6632,7 +6681,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6658,7 +6707,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6684,7 +6733,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6710,7 +6759,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6736,7 +6785,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6762,7 +6811,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6788,7 +6837,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6814,7 +6863,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6840,7 +6889,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6866,7 +6915,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6892,7 +6941,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6918,7 +6967,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -6944,7 +6993,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -6970,7 +7019,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -6996,7 +7045,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7022,7 +7071,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7048,7 +7097,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7074,7 +7123,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7100,7 +7149,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -7126,7 +7175,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -7152,7 +7201,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -7178,7 +7227,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -7204,7 +7253,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -7230,7 +7279,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -7256,7 +7305,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -7282,7 +7331,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -7308,7 +7357,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -7334,7 +7383,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -7360,7 +7409,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -7386,7 +7435,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -7412,7 +7461,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -7438,7 +7487,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -7464,7 +7513,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -7490,7 +7539,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -7516,7 +7565,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -7542,7 +7591,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -7568,7 +7617,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -7594,7 +7643,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -7620,7 +7669,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -7646,7 +7695,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -7672,7 +7721,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -7698,7 +7747,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -7724,7 +7773,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -7750,7 +7799,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -7776,7 +7825,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -7802,7 +7851,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -7828,7 +7877,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -7854,7 +7903,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -7880,7 +7929,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -7906,7 +7955,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -7932,7 +7981,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -7958,7 +8007,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -7984,7 +8033,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8010,7 +8059,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8036,7 +8085,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8062,7 +8111,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -8088,7 +8137,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -8114,7 +8163,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -8140,7 +8189,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -8166,7 +8215,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -8192,7 +8241,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -8218,7 +8267,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -8244,7 +8293,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -8270,7 +8319,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -8296,7 +8345,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -8322,7 +8371,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -8348,7 +8397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -8374,7 +8423,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -8400,7 +8449,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -8426,7 +8475,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -8452,7 +8501,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -8478,7 +8527,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -8504,7 +8553,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -8530,7 +8579,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -8556,7 +8605,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -8582,7 +8631,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -8608,7 +8657,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -8634,7 +8683,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -8660,7 +8709,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -8686,7 +8735,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -8712,7 +8761,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -8738,7 +8787,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -8764,7 +8813,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -8790,7 +8839,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -8816,7 +8865,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -8842,7 +8891,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -8868,7 +8917,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -8892,7 +8941,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -8916,7 +8965,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -8940,7 +8989,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -8964,7 +9013,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -8990,7 +9039,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -9014,7 +9063,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -9038,7 +9087,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -9062,7 +9111,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -9088,7 +9137,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -9114,7 +9163,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -9138,7 +9187,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -9162,7 +9211,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -9186,7 +9235,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -9210,7 +9259,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -9233,7 +9282,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -9256,7 +9305,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -9279,7 +9328,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -9302,7 +9351,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -9325,7 +9374,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -9348,7 +9397,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -9371,7 +9420,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -9394,7 +9443,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -9417,7 +9466,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -9440,7 +9489,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -9463,7 +9512,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -9486,7 +9535,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -9509,7 +9558,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -9532,7 +9581,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -9555,7 +9604,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -9578,7 +9627,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -9601,7 +9650,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -9624,7 +9673,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -9647,7 +9696,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -9670,7 +9719,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -9693,7 +9742,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -9719,7 +9768,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -9745,7 +9794,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -9771,7 +9820,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -9794,7 +9843,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -9817,7 +9866,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -9840,7 +9889,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -9863,7 +9912,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -9886,7 +9935,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -9909,7 +9958,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -9932,7 +9981,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -9955,7 +10004,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -9978,7 +10027,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -10001,7 +10050,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -10024,7 +10073,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -10047,7 +10096,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -10070,7 +10119,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -10093,7 +10142,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -10116,7 +10165,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -10139,7 +10188,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -10162,7 +10211,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -10185,7 +10234,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -10208,7 +10257,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -10231,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -10254,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -10277,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -10300,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -10323,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -10346,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -10369,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -10392,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -10415,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -10441,7 +10490,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -10467,7 +10516,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -10493,7 +10542,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -10519,7 +10568,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -10545,7 +10594,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -10571,7 +10620,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -10597,7 +10646,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -10623,7 +10672,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -10649,7 +10698,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -10675,7 +10724,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -10701,7 +10750,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -10727,7 +10776,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -10753,7 +10802,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -10779,7 +10828,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -10805,7 +10854,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -10831,7 +10880,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -10857,7 +10906,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -10883,33 +10932,34 @@
         <v>737</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
+      <c r="E254" s="27">
+        <v>1</v>
+      </c>
+      <c r="F254" s="27">
+        <v>1</v>
+      </c>
+      <c r="G254" s="27">
+        <v>1</v>
+      </c>
+      <c r="H254" s="27"/>
+      <c r="I254" s="25" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -10935,7 +10985,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -10961,33 +11011,34 @@
         <v>753</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A257" s="16">
         <v>256</v>
       </c>
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C257" s="25" t="s">
-        <v>923</v>
-      </c>
-      <c r="D257" s="25" t="s">
+      <c r="C257" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="E257" s="26">
-        <v>1</v>
-      </c>
-      <c r="F257" s="26">
-        <v>1</v>
-      </c>
-      <c r="G257" s="26">
-        <v>1</v>
-      </c>
-      <c r="I257" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E257" s="17">
+        <v>1</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17"/>
+      <c r="I257" s="15" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A258" s="16">
         <v>257</v>
       </c>
@@ -11013,7 +11064,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A259" s="16">
         <v>258</v>
       </c>
@@ -11039,7 +11090,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A260" s="16">
         <v>259</v>
       </c>
@@ -11065,7 +11116,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -11091,7 +11142,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -11117,7 +11168,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -11143,7 +11194,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A264" s="16">
         <v>263</v>
       </c>
@@ -11169,7 +11220,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A265" s="16">
         <v>264</v>
       </c>
@@ -11195,7 +11246,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A266" s="16">
         <v>265</v>
       </c>
@@ -11221,7 +11272,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A267" s="16">
         <v>266</v>
       </c>
@@ -11247,7 +11298,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A268" s="16">
         <v>267</v>
       </c>
@@ -11273,7 +11324,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -11299,7 +11350,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A270" s="16">
         <v>269</v>
       </c>
@@ -11325,7 +11376,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -11351,7 +11402,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A272" s="16">
         <v>271</v>
       </c>
@@ -11377,7 +11428,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A273" s="16">
         <v>272</v>
       </c>
@@ -11403,7 +11454,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A274" s="16">
         <v>273</v>
       </c>
@@ -11429,7 +11480,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A275" s="16">
         <v>274</v>
       </c>
@@ -11455,7 +11506,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
@@ -11481,7 +11532,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11504,7 +11555,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
@@ -11530,7 +11581,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="16">
         <v>278</v>
       </c>
@@ -11556,7 +11607,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -11579,7 +11630,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -11605,7 +11656,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="16">
         <v>281</v>
       </c>
@@ -11631,7 +11682,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
@@ -11657,7 +11708,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
@@ -11683,7 +11734,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A285" s="16">
         <v>284</v>
       </c>
@@ -11709,7 +11760,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
@@ -11735,7 +11786,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A287" s="16">
         <v>286</v>
       </c>
@@ -11761,7 +11812,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A288" s="16">
         <v>287</v>
       </c>
@@ -11787,7 +11838,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -11813,7 +11864,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:36" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
@@ -11839,7 +11890,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:36" ht="16.5">
       <c r="A291" s="16">
         <v>290</v>
       </c>
@@ -11865,7 +11916,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
@@ -11891,7 +11942,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
@@ -11917,7 +11968,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
@@ -11943,33 +11994,34 @@
         <v>736</v>
       </c>
     </row>
-    <row r="295" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:36" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="18" t="s">
         <v>886</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
+      <c r="E295" s="17">
+        <v>0</v>
+      </c>
+      <c r="F295" s="17">
+        <v>0</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+      <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
@@ -12023,7 +12075,7 @@
       <c r="AI296" s="17"/>
       <c r="AJ296" s="17"/>
     </row>
-    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12077,28 +12129,28 @@
       <c r="AI297" s="17"/>
       <c r="AJ297" s="17"/>
     </row>
-    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C298" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D298" s="26"/>
-      <c r="E298" s="26">
-        <v>1</v>
-      </c>
-      <c r="F298" s="26">
-        <v>1</v>
-      </c>
-      <c r="G298" s="26">
-        <v>1</v>
-      </c>
-      <c r="H298" s="26"/>
-      <c r="I298" s="25" t="s">
+      <c r="D298" s="17"/>
+      <c r="E298" s="17">
+        <v>1</v>
+      </c>
+      <c r="F298" s="17">
+        <v>1</v>
+      </c>
+      <c r="G298" s="17">
+        <v>1</v>
+      </c>
+      <c r="H298" s="17"/>
+      <c r="I298" s="15" t="s">
         <v>920</v>
       </c>
       <c r="J298" s="17"/>
@@ -12129,7 +12181,7 @@
       <c r="AI298" s="17"/>
       <c r="AJ298" s="17"/>
     </row>
-    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:36" s="22" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12183,7 +12235,7 @@
       <c r="AI299" s="17"/>
       <c r="AJ299" s="17"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
@@ -12237,31 +12289,31 @@
       <c r="AI300" s="17"/>
       <c r="AJ300" s="17"/>
     </row>
-    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:36" s="21" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="24" t="s">
-        <v>933</v>
+      <c r="B301" s="26" t="s">
+        <v>931</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D301" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="E301" s="26">
-        <v>1</v>
-      </c>
-      <c r="F301" s="26">
-        <v>1</v>
-      </c>
-      <c r="G301" s="26">
-        <v>1</v>
-      </c>
-      <c r="H301" s="26"/>
+        <v>937</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="E301" s="27">
+        <v>1</v>
+      </c>
+      <c r="F301" s="27">
+        <v>1</v>
+      </c>
+      <c r="G301" s="27">
+        <v>1</v>
+      </c>
+      <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12291,34 +12343,34 @@
       <c r="AI301" s="17"/>
       <c r="AJ301" s="17"/>
     </row>
-    <row r="302" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="24" t="s">
+      <c r="B302" s="26" t="s">
         <v>905</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="D302" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="D302" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="E302" s="26">
-        <v>1</v>
-      </c>
-      <c r="F302" s="26">
-        <v>1</v>
-      </c>
-      <c r="G302" s="26">
-        <v>1</v>
-      </c>
-      <c r="H302" s="26"/>
+      <c r="E302" s="27">
+        <v>1</v>
+      </c>
+      <c r="F302" s="27">
+        <v>1</v>
+      </c>
+      <c r="G302" s="27">
+        <v>1</v>
+      </c>
+      <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
@@ -12344,158 +12396,216 @@
         <v>644</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="I304" s="23" t="s">
+      <c r="E304" s="17">
+        <v>1</v>
+      </c>
+      <c r="F304" s="17">
+        <v>1</v>
+      </c>
+      <c r="G304" s="17">
+        <v>1</v>
+      </c>
+      <c r="H304" s="17"/>
+      <c r="I304" s="19" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C305" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D305" s="24" t="s">
+      <c r="D305" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="E305" s="26">
-        <v>1</v>
-      </c>
-      <c r="F305" s="26">
-        <v>1</v>
-      </c>
-      <c r="G305" s="26">
-        <v>1</v>
-      </c>
-      <c r="H305" s="26"/>
-      <c r="I305" s="25" t="s">
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="H305" s="17"/>
+      <c r="I305" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="C306" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D306" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="E306" s="26">
-        <v>1</v>
-      </c>
-      <c r="F306" s="26">
-        <v>1</v>
-      </c>
-      <c r="G306" s="26">
-        <v>1</v>
-      </c>
-      <c r="I306" s="25" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E306" s="17">
+        <v>1</v>
+      </c>
+      <c r="F306" s="17">
+        <v>1</v>
+      </c>
+      <c r="G306" s="17">
+        <v>1</v>
+      </c>
+      <c r="H306" s="17"/>
+      <c r="I306" s="15" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="24" t="s">
+      <c r="B307" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="C307" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="D307" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="C307" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="D307" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="E307" s="26">
-        <v>1</v>
-      </c>
-      <c r="F307" s="26">
-        <v>1</v>
-      </c>
-      <c r="G307" s="26">
-        <v>1</v>
-      </c>
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+      <c r="H307" s="17"/>
       <c r="I307" s="25" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="E308" s="27">
+        <v>1</v>
+      </c>
+      <c r="F308" s="27">
+        <v>1</v>
+      </c>
+      <c r="G308" s="27">
+        <v>1</v>
+      </c>
+      <c r="H308" s="27"/>
+      <c r="I308" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="D308" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="17.25">
+      <c r="A310" s="16">
+        <v>309</v>
+      </c>
+      <c r="B310" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="C310" s="25" t="s">
         <v>942</v>
       </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
+      <c r="D310" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="E310" s="27">
+        <v>1</v>
+      </c>
+      <c r="F310" s="27">
+        <v>1</v>
+      </c>
+      <c r="G310" s="27">
+        <v>1</v>
+      </c>
+      <c r="H310" s="27"/>
+      <c r="I310" s="25" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="17.25">
+      <c r="A311" s="16">
+        <v>310</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="E311" s="27">
+        <v>1</v>
+      </c>
+      <c r="F311" s="27">
+        <v>1</v>
+      </c>
+      <c r="G311" s="27">
+        <v>1</v>
+      </c>
+      <c r="H311" s="27"/>
+      <c r="I311" s="28" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -12514,19 +12624,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_1.19/game_module_config_cjj.xlsx
+++ b/config_1.19/game_module_config_cjj.xlsx
@@ -4503,10 +4503,10 @@
   <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B304" sqref="B304"/>
+      <selection pane="bottomRight" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12374,25 +12374,26 @@
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="D303" s="18" t="s">
+      <c r="D303" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="E303" s="17">
-        <v>1</v>
-      </c>
-      <c r="F303" s="17">
-        <v>1</v>
-      </c>
-      <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="19" t="s">
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+      <c r="F303" s="27">
+        <v>1</v>
+      </c>
+      <c r="G303" s="27">
+        <v>1</v>
+      </c>
+      <c r="H303" s="27"/>
+      <c r="I303" s="28" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12481,25 +12482,25 @@
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="18" t="s">
+      <c r="B307" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="C307" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="D307" s="18" t="s">
+      <c r="D307" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="E307" s="17">
-        <v>1</v>
-      </c>
-      <c r="F307" s="17">
-        <v>1</v>
-      </c>
-      <c r="G307" s="17">
-        <v>1</v>
-      </c>
-      <c r="H307" s="17"/>
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+      <c r="F307" s="27">
+        <v>1</v>
+      </c>
+      <c r="G307" s="27">
+        <v>1</v>
+      </c>
+      <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
         <v>935</v>
       </c>

--- a/config_1.19/game_module_config_cjj.xlsx
+++ b/config_1.19/game_module_config_cjj.xlsx
@@ -3976,7 +3976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4059,8 +4059,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4103,6 +4115,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4135,7 +4153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4221,6 +4239,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4503,10 +4539,10 @@
   <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D307" sqref="D307"/>
+      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11520,7 +11556,7 @@
         <v>823</v>
       </c>
       <c r="E276" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="17">
         <v>1</v>
@@ -11543,7 +11579,7 @@
         <v>826</v>
       </c>
       <c r="E277" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" s="17">
         <v>1</v>
@@ -11734,107 +11770,107 @@
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A285" s="16">
+    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A285" s="31">
         <v>284</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="31" t="s">
         <v>856</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="E285" s="17">
-        <v>1</v>
-      </c>
-      <c r="F285" s="17">
-        <v>1</v>
-      </c>
-      <c r="G285" s="17">
-        <v>1</v>
-      </c>
-      <c r="I285" s="19" t="s">
+      <c r="E285" s="32">
+        <v>1</v>
+      </c>
+      <c r="F285" s="32">
+        <v>1</v>
+      </c>
+      <c r="G285" s="32">
+        <v>1</v>
+      </c>
+      <c r="I285" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A286" s="16">
+    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A286" s="31">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="32" t="s">
         <v>852</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="E286" s="17">
-        <v>1</v>
-      </c>
-      <c r="F286" s="17">
-        <v>1</v>
-      </c>
-      <c r="G286" s="17">
-        <v>1</v>
-      </c>
-      <c r="I286" s="19" t="s">
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="32">
+        <v>1</v>
+      </c>
+      <c r="G286" s="32">
+        <v>1</v>
+      </c>
+      <c r="I286" s="32" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A287" s="16">
+    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="31">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="32" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="E287" s="17">
-        <v>1</v>
-      </c>
-      <c r="F287" s="17">
-        <v>1</v>
-      </c>
-      <c r="G287" s="17">
-        <v>1</v>
-      </c>
-      <c r="I287" s="19" t="s">
+      <c r="E287" s="32">
+        <v>1</v>
+      </c>
+      <c r="F287" s="32">
+        <v>1</v>
+      </c>
+      <c r="G287" s="32">
+        <v>1</v>
+      </c>
+      <c r="I287" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
+      <c r="A288" s="29">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="17">
-        <v>0</v>
-      </c>
-      <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="17">
-        <v>1</v>
-      </c>
-      <c r="I288" s="19" t="s">
+      <c r="E288" s="30">
+        <v>0</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="I288" s="30" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11890,55 +11926,55 @@
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="16.5">
-      <c r="A291" s="16">
+    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A291" s="33">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="34" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
-      <c r="A292" s="16">
+    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
+      <c r="A292" s="33">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
+      <c r="E292" s="34">
+        <v>1</v>
+      </c>
+      <c r="F292" s="34">
+        <v>1</v>
+      </c>
+      <c r="G292" s="34">
+        <v>1</v>
+      </c>
+      <c r="I292" s="34" t="s">
         <v>875</v>
       </c>
     </row>
@@ -11956,7 +11992,7 @@
         <v>882</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -11982,7 +12018,7 @@
         <v>885</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -12438,7 +12474,7 @@
         <v>916</v>
       </c>
       <c r="E305" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305" s="17">
         <v>1</v>
